--- a/PerformerfForACMESystemGenerateYearlyReport/Data/Config.xlsx
+++ b/PerformerfForACMESystemGenerateYearlyReport/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hosni\Documents\UiPath\PerformerfForACMESystemGenerateYearlyReport\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hosni\Documents\UiPath\AcmeGenerateYearlyReport\PerformerfForACMESystemGenerateYearlyReport\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D20B9D-4CC2-4771-9A64-67488201134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C882845B-AAD7-477E-A548-B1FBC3D38E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,7 +610,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -766,7 +766,7 @@
         <v>61</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
